--- a/Backend-Assignment/customer_data.xlsx
+++ b/Backend-Assignment/customer_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alemeno\Backend Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debap\OneDrive\Desktop\backend-assignment\Backend-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12C2605-55AB-46E1-ACC5-1521F59BB125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21168" windowHeight="7524"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1842,7 +1841,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2154,11 +2153,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4879,7 +4878,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>214</v>
